--- a/HeatDistribTesting.xlsx
+++ b/HeatDistribTesting.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED4EB9FC-5E3F-423C-9E7E-84E98F224720}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cygwin\home\boyan\psled\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D37557-D6E4-4F89-9B42-C42E4DA9418D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -23,18 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Heat DISTRIBUTION</t>
   </si>
   <si>
     <t>2D jacobi iteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPEEDUP = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ts / Tp</t>
   </si>
   <si>
     <t>EFFICIENCY = Ts / nTp</t>
@@ -54,12 +54,18 @@
   <si>
     <t>1024x1024</t>
   </si>
+  <si>
+    <t>avg. sp-up</t>
+  </si>
+  <si>
+    <t>SPEEDUP =  Ts / Tp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,10 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,6 +119,3418 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Heat</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Distribution Test Dimensions: 128x128</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>(2D Jacobi iterations)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>avg. sp-up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0181455842248792</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2439666266045339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.34777157344911</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73619750626648139</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33195393052565059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CB1-4C9E-AE36-52C561128B61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="430098096"/>
+        <c:axId val="430095472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="430098096"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430095472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="430095472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Speed-up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430098096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>Heat Distribution Test Dimensions 512x512</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>(2D</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Jacobi iterations)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>fadsfas</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$14:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$14:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4948355181783235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7487363458687408</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1396425974913882</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.303777699866007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8528150758152888</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CB1-4C9E-AE36-52C561128B61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="430098096"/>
+        <c:axId val="430095472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="430098096"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430095472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="430095472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Speed-up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430098096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Heat Distribution Test Dimensions</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>: 1024x1024</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>(2D Jacobi iterations)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>sda</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$24:$H$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$24:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5160194598018428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8988652232547141</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1623909044168119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.463171802034816</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.813364393482743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CB1-4C9E-AE36-52C561128B61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="430098096"/>
+        <c:axId val="430095472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="430098096"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430095472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="430095472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Speed-up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430098096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FD3A4F2-BBF4-409C-A4AB-1A3A9D970E32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7741F770-D3CD-4416-A266-B495644EC8E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1836420</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6D1BBA-A1F9-4875-A453-BCC7BA2A2318}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>40800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>162720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F997D1-182A-4EBC-9EEC-9D1A5B9A3B4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="7315200"/>
+          <a:ext cx="1260000" cy="1260000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>2700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>177960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F5A162B-D84B-41C5-B6B1-8D0AA5BB5574}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9182100" y="5684520"/>
+          <a:ext cx="1260000" cy="1260000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>56040</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>177960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4B998D-B2EC-44EC-8C92-E8D7EAB768D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7406640" y="5684520"/>
+          <a:ext cx="1260000" cy="1260000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>40800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>147480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0C6B749-5021-4E7C-8BC2-F005DB7E9D6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220200" y="7299960"/>
+          <a:ext cx="1260000" cy="1260000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,572 +3828,1131 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="3.77734375" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" customWidth="1"/>
+    <col min="20" max="20" width="26.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="O1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="O1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>100</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>250</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>500</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>1000</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3">
         <v>100</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>250</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
         <v>500</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3">
         <v>1000</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="2">
+      <c r="O3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3">
         <v>100</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3">
         <v>250</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3">
         <v>500</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>0.13800000000000001</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>0.34399999999999997</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>0.68799999999999994</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>1.379</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2">
+      <c r="G4">
+        <f>SUM(I4,J4,K4,L4) / 4</f>
         <v>1</v>
       </c>
-      <c r="I4" s="2">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <f xml:space="preserve"> B4 / B4</f>
         <v>1</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <f xml:space="preserve"> C4 / C4</f>
         <v>1</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4">
         <f xml:space="preserve"> D4 / D4</f>
         <v>1</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4">
         <f xml:space="preserve"> E4 / E4</f>
         <v>1</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4">
         <v>1</v>
       </c>
       <c r="P4">
-        <f>I4/H4</f>
+        <f t="shared" ref="P4:P9" si="0">I4/H4</f>
         <v>1</v>
       </c>
       <c r="Q4">
-        <f>J4/H4</f>
+        <f t="shared" ref="Q4:Q9" si="1">J4/H4</f>
         <v>1</v>
       </c>
       <c r="R4">
-        <f>K4/H4</f>
+        <f t="shared" ref="R4:R9" si="2">K4/H4</f>
         <v>1</v>
       </c>
       <c r="S4">
-        <f>L4/H4</f>
+        <f t="shared" ref="S4:S9" si="3">L4/H4</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>0.17199999999999999</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>0.33600000000000002</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>0.68100000000000005</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2">
+      <c r="G5">
+        <f>SUM(I5,J5,K5,L5) / 4</f>
+        <v>2.0181455842248792</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <f>B4/B5</f>
         <v>2</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <f>C4/C5</f>
         <v>2</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5">
         <f>D4/D5</f>
         <v>2.0476190476190474</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5">
         <f>E4/E5</f>
         <v>2.0249632892804699</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5">
         <v>4</v>
       </c>
       <c r="P5">
-        <f>I5/H5</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="Q5">
-        <f>J5/H5</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="R5">
-        <f>K5/H5</f>
+        <f t="shared" si="2"/>
         <v>0.51190476190476186</v>
       </c>
       <c r="S5">
-        <f>L5/H5</f>
+        <f t="shared" si="3"/>
         <v>0.50624082232011747</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>0.154</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>0.309</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>0.61199999999999999</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2">
+      <c r="G6">
+        <f>SUM(I6,J6,K6,L6) / 4</f>
+        <v>2.2439666266045339</v>
+      </c>
+      <c r="H6">
         <v>8</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6">
         <f>B4/B6</f>
         <v>2.2622950819672134</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6">
         <f>C4/C6</f>
         <v>2.2337662337662336</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6">
         <f>D4/D6</f>
         <v>2.2265372168284787</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6">
         <f>E4/E6</f>
         <v>2.2532679738562091</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6">
         <v>8</v>
       </c>
       <c r="P6">
-        <f>I6/H6</f>
+        <f t="shared" si="0"/>
         <v>0.28278688524590168</v>
       </c>
       <c r="Q6">
-        <f>J6/H6</f>
+        <f t="shared" si="1"/>
         <v>0.2792207792207792</v>
       </c>
       <c r="R6">
-        <f>K6/H6</f>
+        <f t="shared" si="2"/>
         <v>0.27831715210355984</v>
       </c>
       <c r="S6">
-        <f>L6/H6</f>
+        <f t="shared" si="3"/>
         <v>0.28165849673202614</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>16</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>0.10199999999999999</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>0.255</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>0.51100000000000001</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>1.0269999999999999</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2">
+      <c r="G7">
+        <f>SUM(I7,J7,K7,L7) / 4</f>
+        <v>1.34777157344911</v>
+      </c>
+      <c r="H7">
         <v>16</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7">
         <f>B4/B7</f>
         <v>1.3529411764705885</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7">
         <f>C4/C7</f>
         <v>1.3490196078431371</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7">
         <f>D4/D7</f>
         <v>1.3463796477495107</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7">
         <f>E4/E7</f>
         <v>1.3427458617332035</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7">
         <v>16</v>
       </c>
       <c r="P7">
-        <f>I7/H7</f>
+        <f t="shared" si="0"/>
         <v>8.4558823529411783E-2</v>
       </c>
       <c r="Q7">
-        <f>J7/H7</f>
+        <f t="shared" si="1"/>
         <v>8.431372549019607E-2</v>
       </c>
       <c r="R7">
-        <f>K7/H7</f>
+        <f t="shared" si="2"/>
         <v>8.4148727984344418E-2</v>
       </c>
       <c r="S7">
-        <f>L7/H7</f>
+        <f t="shared" si="3"/>
         <v>8.3921616358325221E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>32</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>0.192</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>0.45100000000000001</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>0.95199999999999996</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>1.8620000000000001</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2">
+      <c r="G8">
+        <f>SUM(I8,J8,K8,L8) / 4</f>
+        <v>0.73619750626648139</v>
+      </c>
+      <c r="H8">
         <v>32</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8">
         <f>B4/B8</f>
         <v>0.71875</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8">
         <f>C4/C8</f>
         <v>0.7627494456762749</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8">
         <f>D4/D8</f>
         <v>0.72268907563025209</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8">
         <f>E4/E8</f>
         <v>0.74060150375939848</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8">
         <v>32</v>
       </c>
       <c r="P8">
-        <f>I8/H8</f>
+        <f t="shared" si="0"/>
         <v>2.24609375E-2</v>
       </c>
       <c r="Q8">
-        <f>J8/H8</f>
+        <f t="shared" si="1"/>
         <v>2.383592017738359E-2</v>
       </c>
       <c r="R8">
-        <f>K8/H8</f>
+        <f t="shared" si="2"/>
         <v>2.2584033613445378E-2</v>
       </c>
       <c r="S8">
-        <f>L8/H8</f>
+        <f t="shared" si="3"/>
         <v>2.3143796992481203E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>64</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>0.36899999999999999</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>0.997</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>2.653</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>3.9460000000000002</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2">
+      <c r="G9">
+        <f>SUM(I9,J9,K9,L9) / 4</f>
+        <v>0.33195393052565059</v>
+      </c>
+      <c r="H9">
         <v>64</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9">
         <f>B4/B9</f>
         <v>0.37398373983739841</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9">
         <f>C4/C9</f>
         <v>0.34503510531594783</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9">
         <f>D4/D9</f>
         <v>0.25932906143987938</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9">
         <f>E4/E9</f>
         <v>0.34946781550937656</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9">
         <v>64</v>
       </c>
       <c r="P9">
-        <f>I9/H9</f>
+        <f t="shared" si="0"/>
         <v>5.8434959349593502E-3</v>
       </c>
       <c r="Q9">
-        <f>J9/H9</f>
+        <f t="shared" si="1"/>
         <v>5.3911735205616849E-3</v>
       </c>
       <c r="R9">
-        <f>K9/H9</f>
+        <f t="shared" si="2"/>
         <v>4.0520165849981154E-3</v>
       </c>
       <c r="S9">
-        <f>L9/H9</f>
+        <f t="shared" si="3"/>
         <v>5.4604346173340087E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>250</v>
+      </c>
+      <c r="D13">
+        <v>500</v>
+      </c>
+      <c r="E13">
+        <v>1000</v>
+      </c>
+      <c r="G13" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>250</v>
+      </c>
+      <c r="K13">
+        <v>500</v>
+      </c>
+      <c r="L13">
+        <v>1000</v>
+      </c>
+      <c r="O13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>100</v>
+      </c>
+      <c r="Q13">
+        <v>250</v>
+      </c>
+      <c r="R13">
+        <v>500</v>
+      </c>
+      <c r="S13">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2">
-        <v>100</v>
-      </c>
-      <c r="C13" s="2">
-        <v>250</v>
-      </c>
-      <c r="D13" s="2">
-        <v>500</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="2">
-        <v>100</v>
-      </c>
-      <c r="J13" s="2">
-        <v>250</v>
-      </c>
-      <c r="K13" s="2">
-        <v>500</v>
-      </c>
-      <c r="L13" s="2">
-        <v>1000</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P13" s="2">
-        <v>100</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>250</v>
-      </c>
-      <c r="R13" s="2">
-        <v>500</v>
-      </c>
-      <c r="S13" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>3.62</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>9.125</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>18.117000000000001</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14">
         <v>36.15</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2">
+      <c r="G14">
+        <f>SUM(I14,J14,K14,L14) / 4</f>
         <v>1</v>
       </c>
-      <c r="I14" s="2">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
         <f xml:space="preserve"> B14 / B14</f>
         <v>1</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14">
         <f xml:space="preserve"> C14 / C14</f>
         <v>1</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14">
         <f xml:space="preserve"> D14 / D14</f>
         <v>1</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14">
         <f xml:space="preserve"> E14 / E14</f>
         <v>1</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14">
         <v>1</v>
       </c>
       <c r="P14">
@@ -996,8 +4972,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>4</v>
       </c>
       <c r="B15">
@@ -1012,26 +4988,30 @@
       <c r="E15">
         <v>14.532</v>
       </c>
-      <c r="H15" s="2">
+      <c r="G15">
+        <f>SUM(I15,J15,K15,L15) / 4</f>
+        <v>2.4948355181783235</v>
+      </c>
+      <c r="H15">
         <v>4</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15">
         <f>B14/B15</f>
         <v>2.4879725085910653</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15">
         <f>C14/C15</f>
         <v>2.4979468929646864</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15">
         <f>D14/D15</f>
         <v>2.5058091286307054</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15">
         <f>E14/E15</f>
         <v>2.4876135425268373</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15">
         <v>4</v>
       </c>
       <c r="P15">
@@ -1051,8 +5031,8 @@
         <v>0.62190338563170933</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>8</v>
       </c>
       <c r="B16">
@@ -1067,26 +5047,30 @@
       <c r="E16">
         <v>7.6180000000000003</v>
       </c>
-      <c r="H16" s="2">
+      <c r="G16">
+        <f>SUM(I16,J16,K16,L16) / 4</f>
+        <v>4.7487363458687408</v>
+      </c>
+      <c r="H16">
         <v>8</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16">
         <f>B14/B16</f>
         <v>4.7631578947368425</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16">
         <f>C14/C16</f>
         <v>4.802631578947369</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16">
         <f>D14/D16</f>
         <v>4.683815925542917</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16">
         <f>E14/E16</f>
         <v>4.7453399842478339</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16">
         <v>8</v>
       </c>
       <c r="P16">
@@ -1106,8 +5090,8 @@
         <v>0.59316749803097923</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
@@ -1122,26 +5106,30 @@
       <c r="E17">
         <v>4.4729999999999999</v>
       </c>
-      <c r="H17" s="2">
+      <c r="G17">
+        <f>SUM(I17,J17,K17,L17) / 4</f>
+        <v>8.1396425974913882</v>
+      </c>
+      <c r="H17">
         <v>16</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17">
         <f>B14/B17</f>
         <v>8.0984340044742726</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17">
         <f>C14/C17</f>
         <v>8.2504520795660028</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17">
         <f>D14/D17</f>
         <v>8.1278600269179009</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17">
         <f>E14/E17</f>
         <v>8.0818242790073782</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17">
         <v>16</v>
       </c>
       <c r="P17">
@@ -1161,8 +5149,8 @@
         <v>0.50511401743796114</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>32</v>
       </c>
       <c r="B18">
@@ -1177,26 +5165,30 @@
       <c r="E18">
         <v>3.5150000000000001</v>
       </c>
-      <c r="H18" s="2">
+      <c r="G18">
+        <f>SUM(I18,J18,K18,L18) / 4</f>
+        <v>10.303777699866007</v>
+      </c>
+      <c r="H18">
         <v>32</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18">
         <f>B14/B18</f>
         <v>10.313390313390315</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18">
         <f>C14/C18</f>
         <v>10.252808988764045</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18">
         <f>D14/D18</f>
         <v>10.36441647597254</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18">
         <f>E14/E18</f>
         <v>10.284495021337126</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18">
         <v>32</v>
       </c>
       <c r="P18">
@@ -1216,8 +5208,8 @@
         <v>0.32139046941678517</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>64</v>
       </c>
       <c r="B19">
@@ -1232,26 +5224,30 @@
       <c r="E19">
         <v>4.5839999999999996</v>
       </c>
-      <c r="H19" s="2">
+      <c r="G19">
+        <f>SUM(I19,J19,K19,L19) / 4</f>
+        <v>7.8528150758152888</v>
+      </c>
+      <c r="H19">
         <v>64</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19">
         <f>B14/B19</f>
         <v>7.7682403433476397</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19">
         <f>C14/C19</f>
         <v>7.9004329004329001</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19">
         <f>D14/D19</f>
         <v>7.8564614050303554</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19">
         <f>E14/E19</f>
         <v>7.8861256544502618</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19">
         <v>64</v>
       </c>
       <c r="P19">
@@ -1271,65 +5267,66 @@
         <v>0.12322071335078534</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
         <v>100</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>250</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23">
         <v>500</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23">
         <v>1000</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="2">
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23">
         <v>100</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23">
         <v>250</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23">
         <v>500</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23">
         <v>1000</v>
       </c>
-      <c r="O23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P23" s="2">
+      <c r="O23" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23">
         <v>100</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23">
         <v>250</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23">
         <v>500</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S23">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>1</v>
       </c>
       <c r="B24">
@@ -1344,47 +5341,51 @@
       <c r="E24">
         <v>147.18799999999999</v>
       </c>
-      <c r="H24" s="2">
+      <c r="G24">
+        <f>SUM(I24,J24,K24,L24) / 4</f>
         <v>1</v>
       </c>
-      <c r="I24" s="2">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
         <f xml:space="preserve"> B24 / B24</f>
         <v>1</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24">
         <f xml:space="preserve"> C24 / C24</f>
         <v>1</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24">
         <f xml:space="preserve"> D24 / D24</f>
         <v>1</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24">
         <f xml:space="preserve"> E24 / E24</f>
         <v>1</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24">
         <v>1</v>
       </c>
       <c r="P24">
-        <f>I24/H24</f>
+        <f t="shared" ref="P24:P29" si="4">I24/H24</f>
         <v>1</v>
       </c>
       <c r="Q24">
-        <f>J24/H24</f>
+        <f t="shared" ref="Q24:Q29" si="5">J24/H24</f>
         <v>1</v>
       </c>
       <c r="R24">
-        <f>K24/H24</f>
+        <f t="shared" ref="R24:R29" si="6">K24/H24</f>
         <v>1</v>
       </c>
       <c r="S24">
-        <f>L24/H24</f>
+        <f t="shared" ref="S24:S29" si="7">L24/H24</f>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>4</v>
       </c>
       <c r="B25">
@@ -1399,47 +5400,51 @@
       <c r="E25">
         <v>58.308999999999997</v>
       </c>
-      <c r="H25" s="2">
+      <c r="G25">
+        <f>SUM(I25,J25,K25,L25) / 4</f>
+        <v>2.5160194598018428</v>
+      </c>
+      <c r="H25">
         <v>4</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25">
         <f>B24/B25</f>
         <v>2.5205009435580719</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25">
         <f>C24/C25</f>
         <v>2.5000683060109288</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25">
         <f>D24/D25</f>
         <v>2.5192327488590744</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25">
         <f>E24/E25</f>
         <v>2.5242758407792962</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25">
         <v>4</v>
       </c>
       <c r="P25">
-        <f>I25/H25</f>
+        <f t="shared" si="4"/>
         <v>0.63012523588951797</v>
       </c>
       <c r="Q25">
-        <f>J25/H25</f>
+        <f t="shared" si="5"/>
         <v>0.62501707650273219</v>
       </c>
       <c r="R25">
-        <f>K25/H25</f>
+        <f t="shared" si="6"/>
         <v>0.62980818721476861</v>
       </c>
       <c r="S25">
-        <f>L25/H25</f>
+        <f t="shared" si="7"/>
         <v>0.63106896019482406</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>8</v>
       </c>
       <c r="B26">
@@ -1454,47 +5459,51 @@
       <c r="E26">
         <v>29.843</v>
       </c>
-      <c r="H26" s="2">
+      <c r="G26">
+        <f>SUM(I26,J26,K26,L26) / 4</f>
+        <v>4.8988652232547141</v>
+      </c>
+      <c r="H26">
         <v>8</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26">
         <f>B24/B26</f>
         <v>4.9087871700634818</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26">
         <f>C24/C26</f>
         <v>4.9056426752446054</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26">
         <f>D24/D26</f>
         <v>4.8489531735024114</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26">
         <f>E24/E26</f>
         <v>4.9320778742083569</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26">
         <v>8</v>
       </c>
       <c r="P26">
-        <f>I26/H26</f>
+        <f t="shared" si="4"/>
         <v>0.61359839625793522</v>
       </c>
       <c r="Q26">
-        <f>J26/H26</f>
+        <f t="shared" si="5"/>
         <v>0.61320533440557567</v>
       </c>
       <c r="R26">
-        <f>K26/H26</f>
+        <f t="shared" si="6"/>
         <v>0.60611914668780142</v>
       </c>
       <c r="S26">
-        <f>L26/H26</f>
+        <f t="shared" si="7"/>
         <v>0.61650973427604461</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>16</v>
       </c>
       <c r="B27">
@@ -1509,47 +5518,51 @@
       <c r="E27">
         <v>15.898</v>
       </c>
-      <c r="H27" s="2">
+      <c r="G27">
+        <f>SUM(I27,J27,K27,L27) / 4</f>
+        <v>9.1623909044168119</v>
+      </c>
+      <c r="H27">
         <v>16</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27">
         <f>B24/B27</f>
         <v>8.9530773918342472</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27">
         <f>C24/C27</f>
         <v>9.2333501513622593</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27">
         <f>D24/D27</f>
         <v>9.2048645937813447</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27">
         <f>E24/E27</f>
         <v>9.2582714806893947</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27">
         <v>16</v>
       </c>
       <c r="P27">
-        <f>I27/H27</f>
+        <f t="shared" si="4"/>
         <v>0.55956733698964045</v>
       </c>
       <c r="Q27">
-        <f>J27/H27</f>
+        <f t="shared" si="5"/>
         <v>0.57708438446014121</v>
       </c>
       <c r="R27">
-        <f>K27/H27</f>
+        <f t="shared" si="6"/>
         <v>0.57530403711133404</v>
       </c>
       <c r="S27">
-        <f>L27/H27</f>
+        <f t="shared" si="7"/>
         <v>0.57864196754308717</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>32</v>
       </c>
       <c r="B28">
@@ -1564,47 +5577,51 @@
       <c r="E28">
         <v>10.193</v>
       </c>
-      <c r="H28" s="2">
+      <c r="G28">
+        <f>SUM(I28,J28,K28,L28) / 4</f>
+        <v>14.463171802034816</v>
+      </c>
+      <c r="H28">
         <v>32</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28">
         <f>B24/B28</f>
         <v>14.264077669902912</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28">
         <f>C24/C28</f>
         <v>14.693295865114411</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28">
         <f>D24/D28</f>
         <v>14.455207718054737</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28">
         <f>E24/E28</f>
         <v>14.440105955067203</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28">
         <v>32</v>
       </c>
       <c r="P28">
-        <f>I28/H28</f>
+        <f t="shared" si="4"/>
         <v>0.445752427184466</v>
       </c>
       <c r="Q28">
-        <f>J28/H28</f>
+        <f t="shared" si="5"/>
         <v>0.45916549578482535</v>
       </c>
       <c r="R28">
-        <f>K28/H28</f>
+        <f t="shared" si="6"/>
         <v>0.45172524118921054</v>
       </c>
       <c r="S28">
-        <f>L28/H28</f>
+        <f t="shared" si="7"/>
         <v>0.4512533110958501</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>64</v>
       </c>
       <c r="B29">
@@ -1619,46 +5636,82 @@
       <c r="E29">
         <v>9.1969999999999992</v>
       </c>
-      <c r="H29" s="2">
+      <c r="G29">
+        <f>SUM(I29,J29,K29,L29) / 4</f>
+        <v>15.813364393482743</v>
+      </c>
+      <c r="H29">
         <v>64</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29">
         <f>B24/B29</f>
         <v>15.831896551724137</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29">
         <f>C24/C29</f>
         <v>15.594801874733703</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29">
         <f>D24/D29</f>
         <v>15.822844827586209</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29">
         <f>E24/E29</f>
         <v>16.00391431988692</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29">
         <v>64</v>
       </c>
       <c r="P29">
-        <f>I29/H29</f>
+        <f t="shared" si="4"/>
         <v>0.24737338362068964</v>
       </c>
       <c r="Q29">
-        <f>J29/H29</f>
+        <f t="shared" si="5"/>
         <v>0.2436687792927141</v>
       </c>
       <c r="R29">
-        <f>K29/H29</f>
+        <f t="shared" si="6"/>
         <v>0.24723195043103452</v>
       </c>
       <c r="S29">
-        <f>L29/H29</f>
+        <f t="shared" si="7"/>
         <v>0.25006116124823313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O31">
+        <v>500</v>
+      </c>
+      <c r="R31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="15:18" x14ac:dyDescent="0.3">
+      <c r="O40">
+        <v>2500</v>
+      </c>
+      <c r="R40">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1F86E4-5C3E-4159-8765-BE66439C889D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>